--- a/assets/docs_output/mestre dados_finais.xlsx
+++ b/assets/docs_output/mestre dados_finais.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrostick\Desktop\PoC4\Project\ai_poc4\assets\docs_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrostick\Documents\GitKraken\ai_excel_extractor\assets\docs_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48679F95-168D-4E1D-98AD-42FB67888049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3575A2DC-3A6A-4103-8425-665F35D97978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Nome</t>
   </si>
@@ -31,7 +31,7 @@
     <t>NIF</t>
   </si>
   <si>
-    <t>Numero de Sócio</t>
+    <t>Número de Sócio</t>
   </si>
   <si>
     <t>Taxa</t>
@@ -49,133 +49,157 @@
     <t>Estela Cardoso</t>
   </si>
   <si>
+    <t>Silvestre Cunha</t>
+  </si>
+  <si>
+    <t>Sebastião Santos</t>
+  </si>
+  <si>
+    <t>Abel Montenegro</t>
+  </si>
+  <si>
+    <t>Daniel Coutinho</t>
+  </si>
+  <si>
+    <t>Hipólito Magalhães</t>
+  </si>
+  <si>
+    <t>Lúcio Silvestre</t>
+  </si>
+  <si>
+    <t>Germano Dias</t>
+  </si>
+  <si>
+    <t>Sérgio Menezes</t>
+  </si>
+  <si>
+    <t>Rodrigo Sá</t>
+  </si>
+  <si>
+    <t>Ernesto Carneiro</t>
+  </si>
+  <si>
+    <t>Elder Sapateiro</t>
+  </si>
+  <si>
+    <t>Emanuel Pereira</t>
+  </si>
+  <si>
+    <t>Arsenio Silveira</t>
+  </si>
+  <si>
+    <t>Nicodemo Vila</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>87.87</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>17.56</t>
+  </si>
+  <si>
+    <t>12.61</t>
+  </si>
+  <si>
+    <t>16.54</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>36.75</t>
+  </si>
+  <si>
+    <t>225888555</t>
+  </si>
+  <si>
+    <t>244555666</t>
+  </si>
+  <si>
+    <t>212321256</t>
+  </si>
+  <si>
+    <t>257985693</t>
+  </si>
+  <si>
+    <t>267598589</t>
+  </si>
+  <si>
+    <t>289755696</t>
+  </si>
+  <si>
+    <t>258741369</t>
+  </si>
+  <si>
+    <t>215357951</t>
+  </si>
+  <si>
+    <t>1716</t>
+  </si>
+  <si>
+    <t>8261</t>
+  </si>
+  <si>
+    <t>82717</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>3363</t>
+  </si>
+  <si>
+    <t>45234</t>
+  </si>
+  <si>
+    <t>8745</t>
+  </si>
+  <si>
+    <t>23423</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>Outubro</t>
+  </si>
+  <si>
+    <t>setembro 2024</t>
+  </si>
+  <si>
     <t>8.54€ SGF 092024.xlsx</t>
   </si>
   <si>
+    <t>29.47€ Mapa Fundo Pensoes Sindicato Quadros_OUT2024.xlsx</t>
+  </si>
+  <si>
+    <t>73.19€ MAPA FUNDO PENSÕES SAMS QUADROS - 09.2024.xlsx</t>
+  </si>
+  <si>
+    <t>201.33€ 06 - FP - Junho 2024.xlsx</t>
+  </si>
+  <si>
     <t>{'Nome': 'Nome', 'Quota': 'Valor do Desconto', 'NIF': 'NIF', 'Número de Sócio': '', 'Taxa': 'Taxa de Desconto', 'Mês da Contribuição': 'Mês referência'}</t>
   </si>
   <si>
-    <t>Silvestre Cunha</t>
-  </si>
-  <si>
-    <t>Outubro</t>
-  </si>
-  <si>
-    <t>29.47€ Mapa Fundo Pensoes Sindicato Quadros_OUT2024.xlsx</t>
-  </si>
-  <si>
     <t>{'Nome': 'Nome ', 'Quota': 'Valor do Desconto', 'NIF': 'NIF', 'Número de Sócio': '', 'Taxa': 'taxa de desconto', 'Mês da Contribuição': 'mês referência'}</t>
   </si>
   <si>
-    <t>Sebastião Santos</t>
-  </si>
-  <si>
-    <t>Abel Montenegro</t>
-  </si>
-  <si>
-    <t>Daniel Coutinho</t>
-  </si>
-  <si>
-    <t>Hipólito Magalhães</t>
-  </si>
-  <si>
-    <t>setembro 2024</t>
-  </si>
-  <si>
-    <t>73.19€ MAPA FUNDO PENSÕES SAMS QUADROS - 09.2024.xlsx</t>
-  </si>
-  <si>
     <t>{'Nome': 'Nome:', 'Quota': 'Valor', 'NIF': 'NIF', 'Número de Sócio': '', 'Taxa': 'taxa desconto', 'Mês da Contribuição': 'mês referência'}</t>
   </si>
   <si>
-    <t>Lúcio Silvestre</t>
-  </si>
-  <si>
-    <t>Germano Dias</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>225888555</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>201.33€ 06 - FP - Junho 2024.xlsx</t>
-  </si>
-  <si>
     <t>{'Nome': 'NOME', 'Quota': 'DESCONTO', 'NIF': 'NIF', 'Número de Sócio': 'Nº PARTIC.', 'Taxa': 'taxa', 'Mês da Contribuição': ''}</t>
-  </si>
-  <si>
-    <t>Sérgio Menezes</t>
-  </si>
-  <si>
-    <t>87.87</t>
-  </si>
-  <si>
-    <t>244555666</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>Rodrigo Sá</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>212321256</t>
-  </si>
-  <si>
-    <t>Ernesto Carneiro</t>
-  </si>
-  <si>
-    <t>17.56</t>
-  </si>
-  <si>
-    <t>257985693</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>Elder Sapateiro</t>
-  </si>
-  <si>
-    <t>12.61</t>
-  </si>
-  <si>
-    <t>267598589</t>
-  </si>
-  <si>
-    <t>Emanuel Pereira</t>
-  </si>
-  <si>
-    <t>16.54</t>
-  </si>
-  <si>
-    <t>289755696</t>
-  </si>
-  <si>
-    <t>Arsenio Silveira</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>258741369</t>
-  </si>
-  <si>
-    <t>Nicodemo Vila</t>
-  </si>
-  <si>
-    <t>36.75</t>
-  </si>
-  <si>
-    <t>215357951</t>
   </si>
 </sst>
 </file>
@@ -193,7 +217,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,9 +281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +321,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -328,6 +355,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -362,9 +390,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,7 +570,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,15 +628,15 @@
         <v>202409</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>8.68</v>
@@ -619,18 +648,18 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>7.61</v>
@@ -642,12 +671,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>6.97</v>
@@ -659,12 +688,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>6.21</v>
@@ -676,12 +705,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>31.37</v>
@@ -693,18 +722,18 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>41.82</v>
@@ -716,122 +745,146 @@
         <v>0.02</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
+      <c r="D11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>